--- a/biology/Écologie/Corine_Biotopes/Corine_Biotopes.xlsx
+++ b/biology/Écologie/Corine_Biotopes/Corine_Biotopes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le catalogue Corine Biotopes est, en écologie, un référentiel hiérarchisé européen qui  propose une classification des habitats naturels et semi-naturels présents sur le sol européen. 
 </t>
@@ -511,7 +523,9 @@
           <t>Histoire, rôles et objectifs</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Issu de la commission Corine (le sigle CORINE signifie COordination et Recherche de l'INformation en Environnement) chargée de la coordination de l'information en environnement, le programme a abouti en 1991 à la proposition d'une typologie arborescente à six niveaux maximum, basée sur la description de la végétation. 
 La mise à jour de cette base est la Paleartic habitat classification de Devillier &amp; Devilliers-Tershuren, 1996. Elle est actuellement remplacée par la base EUNIS ; base de données de l'Union européenne répertoriant les types d'habitats européens (naturels, semi-naturels ou artificiels, terrestres ou aquatiques).
@@ -547,7 +561,9 @@
           <t>Méthode de classification des habitats</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Corine Biotopes s'intéresse à la classification de deux types d'habitats 
 Les habitats dits « naturels » (où l'action de l'homme est censée être relativement faible),
@@ -579,7 +595,9 @@
           <t>Le premier niveau de la typologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Il regroupe les grands paysages naturels présents sur le sol européen :
 Habitats littoraux et halophiles
@@ -628,6 +646,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -653,7 +673,9 @@
           <t>Correspondance avec d'autres typologies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la définition des sites faisant partie du réseau Natura 2000 (réseau de sites naturels ou semi-naturels européens, protégés et gérés durablement), il est utilisé une autre typologie, recensant les « habitats d'intérêt communautaire » : le code Natura 2000. Afin de permettre le passage d'une typologie à une autre, une correspondance est faite entre ces deux référentiels, pour les habitats se trouvant à la fois dans Natura 2000 et dans Corine Biotope. Par exemple, les hêtraies-sapinières acidiphiles de l'étage montagnard inférieur, code Natura 2000 9110, correspond à l'habitat Corine Biotope n°41.112
 À terme, la typologie Corine Biotope devrait être remplacée par le futur système européen EUNIS (European Union Nature Information System), à laquelle elle sert de base de travail.
